--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -499,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,82 +596,82 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Total Landings (Mt)</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>Total Landings (Mt)</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>Total Landings (Mt)</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>U (%)</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
@@ -711,22 +711,22 @@
         <v>21</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>1.6229748</v>
+        <v>1.61573879</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>1.0572621525413</v>
       </c>
       <c r="E5" s="7" t="n">
+        <v>17.8973951376953</v>
+      </c>
+      <c r="F5" s="7" t="n">
         <v>62.80322312976857</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="G5" s="7" t="n">
         <v>19.29938173253613</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="H5" s="7" t="n">
         <v>80.70061826746387</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>17.8973951376953</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>19.29938173253613</v>
@@ -735,16 +735,16 @@
         <v>0.3927549921253004</v>
       </c>
       <c r="K5" s="7" t="n">
+        <v>6.556546957624381</v>
+      </c>
+      <c r="L5" s="7" t="n">
         <v>86.14186288995843</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="M5" s="7" t="n">
         <v>7.301590152417186</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="N5" s="7" t="n">
         <v>92.69840984758281</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>6.556546957624381</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>7.301590152417186</v>
@@ -766,22 +766,22 @@
         <v>27</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>8.088492569999998</v>
+        <v>8.03285533</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>7.002092515237123</v>
       </c>
       <c r="E6" s="7" t="n">
+        <v>3.441094970651447</v>
+      </c>
+      <c r="F6" s="7" t="n">
         <v>83.89620691981948</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="G6" s="7" t="n">
         <v>12.66269810952908</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="H6" s="7" t="n">
         <v>87.33730189047093</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>3.441094970651447</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>12.66269810952908</v>
@@ -790,16 +790,16 @@
         <v>0.3175748834292283</v>
       </c>
       <c r="K6" s="7" t="n">
+        <v>2.283015202917102</v>
+      </c>
+      <c r="L6" s="7" t="n">
         <v>67.55079418012023</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="M6" s="7" t="n">
         <v>30.16619061696267</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="N6" s="7" t="n">
         <v>69.83380938303733</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>2.283015202917102</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>30.16619061696267</v>
@@ -808,16 +808,16 @@
         <v>0.01452341029916672</v>
       </c>
       <c r="Q6" s="7" t="n">
+        <v>88.85644967298151</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <v>0.8842502609057115</v>
       </c>
-      <c r="R6" s="7" t="n">
+      <c r="S6" s="7" t="n">
         <v>10.25930006611278</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="T6" s="7" t="n">
         <v>89.74069993388723</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>88.85644967298151</v>
       </c>
       <c r="U6" s="7" t="n">
         <v>10.25930006611278</v>
@@ -831,22 +831,22 @@
         <v>31</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1.16162117</v>
+        <v>1.11276046</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0.5460873587517039</v>
       </c>
       <c r="E7" s="7" t="n">
+        <v>91.95929730651638</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>4.032540783600372</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="G7" s="7" t="n">
         <v>4.008161909883256</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="H7" s="7" t="n">
         <v>95.99183809011674</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>91.95929730651638</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>4.008161909883256</v>
@@ -855,16 +855,16 @@
         <v>0.3025211312482961</v>
       </c>
       <c r="K7" s="7" t="n">
+        <v>21.41916779533758</v>
+      </c>
+      <c r="L7" s="7" t="n">
         <v>17.96532534621166</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="M7" s="7" t="n">
         <v>60.61550685845075</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="N7" s="7" t="n">
         <v>39.38449314154924</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>21.41916779533758</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>60.61550685845075</v>
@@ -886,22 +886,22 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>5.1666412</v>
+        <v>4.83827694</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>3.05479828795947</v>
       </c>
       <c r="E8" s="7" t="n">
+        <v>38.24094883974463</v>
+      </c>
+      <c r="F8" s="7" t="n">
         <v>27.02099370997074</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="G8" s="7" t="n">
         <v>34.73805745028463</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="H8" s="7" t="n">
         <v>65.26194254971536</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>38.24094883974463</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>34.73805745028463</v>
@@ -910,16 +910,16 @@
         <v>0.51142463204253</v>
       </c>
       <c r="K8" s="7" t="n">
+        <v>12.58235749341181</v>
+      </c>
+      <c r="L8" s="7" t="n">
         <v>15.42710425314383</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="M8" s="7" t="n">
         <v>71.99053825344434</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="N8" s="7" t="n">
         <v>28.00946174655565</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>12.58235749341181</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>71.99053825344434</v>
@@ -941,22 +941,22 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>1.13584225</v>
+        <v>1.10877186</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>0.7436210511818182</v>
       </c>
       <c r="E9" s="7" t="n">
+        <v>5.40321416957853</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>52.75092859445264</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="G9" s="7" t="n">
         <v>41.84585723596884</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="H9" s="7" t="n">
         <v>58.15414276403117</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.40321416957853</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>41.84585723596884</v>
@@ -986,22 +986,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>2.01386667</v>
+        <v>1.97234068</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>1.525795912206896</v>
       </c>
       <c r="E10" s="7" t="n">
+        <v>1.372348077128</v>
+      </c>
+      <c r="F10" s="7" t="n">
         <v>70.89272462229575</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="G10" s="7" t="n">
         <v>27.73492730057626</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="H10" s="7" t="n">
         <v>72.26507269942374</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>1.372348077128</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>27.73492730057626</v>
@@ -1010,16 +1010,16 @@
         <v>0.1239044977931034</v>
       </c>
       <c r="K10" s="7" t="n">
+        <v>13.16933398987989</v>
+      </c>
+      <c r="L10" s="7" t="n">
         <v>15.87793276882793</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="M10" s="7" t="n">
         <v>70.95273324129218</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="N10" s="7" t="n">
         <v>29.04726675870782</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>13.16933398987989</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>70.95273324129218</v>
@@ -1041,22 +1041,22 @@
         <v>47</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1.4602869</v>
+        <v>1.40545502</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>1.045020003845707</v>
       </c>
       <c r="E11" s="7" t="n">
+        <v>5.773136378058038</v>
+      </c>
+      <c r="F11" s="7" t="n">
         <v>49.63719960198805</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="G11" s="7" t="n">
         <v>44.58966401995391</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="H11" s="7" t="n">
         <v>55.41033598004609</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>5.773136378058038</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>44.58966401995391</v>
@@ -1065,16 +1065,16 @@
         <v>0.05993577877689475</v>
       </c>
       <c r="K11" s="7" t="n">
+        <v>42.4272619288117</v>
+      </c>
+      <c r="L11" s="7" t="n">
         <v>17.64062922552464</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="M11" s="7" t="n">
         <v>39.93210884566366</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="N11" s="7" t="n">
         <v>60.06789115433634</v>
-      </c>
-      <c r="N11" s="7" t="n">
-        <v>42.4272619288117</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>39.93210884566366</v>
@@ -1082,17 +1082,17 @@
       <c r="P11" s="7" t="n">
         <v>0.2480744173773987</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7" t="n">
         <v>2.338802227709514</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="S11" s="7" t="n">
         <v>97.66119777229049</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="T11" s="7" t="n">
         <v>2.338802227709514</v>
-      </c>
-      <c r="T11" s="9" t="n">
-        <v>0</v>
       </c>
       <c r="U11" s="7" t="n">
         <v>97.66119777229049</v>
@@ -1106,22 +1106,22 @@
         <v>51</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>5.4821094</v>
+        <v>4.57255396</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>2.120051651354609</v>
       </c>
       <c r="E12" s="7" t="n">
+        <v>22.1063996137466</v>
+      </c>
+      <c r="F12" s="7" t="n">
         <v>37.1106913802748</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="G12" s="7" t="n">
         <v>40.7829090059786</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="H12" s="7" t="n">
         <v>59.2170909940214</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>22.1063996137466</v>
       </c>
       <c r="I12" s="7" t="n">
         <v>40.7829090059786</v>
@@ -1130,16 +1130,16 @@
         <v>1.419829828948436</v>
       </c>
       <c r="K12" s="7" t="n">
+        <v>32.8081523026836</v>
+      </c>
+      <c r="L12" s="7" t="n">
         <v>56.05161597466562</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="M12" s="7" t="n">
         <v>11.14023172265078</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="N12" s="7" t="n">
         <v>88.85976827734922</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>32.8081523026836</v>
       </c>
       <c r="O12" s="7" t="n">
         <v>11.14023172265078</v>
@@ -1148,16 +1148,16 @@
         <v>0.7851771486969554</v>
       </c>
       <c r="Q12" s="7" t="n">
+        <v>24.2014741519471</v>
+      </c>
+      <c r="R12" s="7" t="n">
         <v>41.04244795812282</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="S12" s="7" t="n">
         <v>34.75607788993008</v>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="T12" s="7" t="n">
         <v>65.24392211006992</v>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>24.2014741519471</v>
       </c>
       <c r="U12" s="7" t="n">
         <v>34.75607788993008</v>
@@ -1171,22 +1171,22 @@
         <v>57</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5.88707507</v>
+        <v>5.55043587</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>3.081241117093891</v>
       </c>
       <c r="E13" s="7" t="n">
+        <v>26.56623356300079</v>
+      </c>
+      <c r="F13" s="7" t="n">
         <v>45.27338306098363</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="G13" s="7" t="n">
         <v>28.16038337601558</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="H13" s="7" t="n">
         <v>71.83961662398443</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>26.56623356300079</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>28.16038337601558</v>
@@ -1194,17 +1194,17 @@
       <c r="J13" s="7" t="n">
         <v>2.05476123236952</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="11" t="n">
+        <v>0.002561368161463114</v>
+      </c>
+      <c r="L13" s="7" t="n">
         <v>97.37295601560427</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="M13" s="7" t="n">
         <v>2.624482616234264</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="N13" s="7" t="n">
         <v>97.37551738376574</v>
-      </c>
-      <c r="N13" s="11" t="n">
-        <v>0.002561368161463114</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>2.624482616234264</v>
@@ -1212,17 +1212,17 @@
       <c r="P13" s="7" t="n">
         <v>0.3439386563112486</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7" t="n">
         <v>88.24080209403148</v>
       </c>
-      <c r="R13" s="7" t="n">
+      <c r="S13" s="7" t="n">
         <v>11.75919790596852</v>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="T13" s="7" t="n">
         <v>88.24080209403148</v>
-      </c>
-      <c r="T13" s="9" t="n">
-        <v>0</v>
       </c>
       <c r="U13" s="7" t="n">
         <v>11.75919790596852</v>
@@ -1236,22 +1236,22 @@
         <v>61</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>19.07760146</v>
+        <v>18.88724254</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>7.773184509659753</v>
       </c>
       <c r="E14" s="7" t="n">
+        <v>34.0867144816123</v>
+      </c>
+      <c r="F14" s="7" t="n">
         <v>33.42537774516912</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="G14" s="7" t="n">
         <v>32.48790777321857</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="H14" s="7" t="n">
         <v>67.51209222678142</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>34.0867144816123</v>
       </c>
       <c r="I14" s="7" t="n">
         <v>32.48790777321857</v>
@@ -1260,16 +1260,16 @@
         <v>6.599457860339248</v>
       </c>
       <c r="K14" s="7" t="n">
+        <v>28.49277399160101</v>
+      </c>
+      <c r="L14" s="7" t="n">
         <v>50.34412760909556</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="M14" s="7" t="n">
         <v>21.16309839930342</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="N14" s="7" t="n">
         <v>78.83690160069656</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>28.49277399160101</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>21.16309839930342</v>
@@ -1291,22 +1291,22 @@
         <v>67</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>2.91385131</v>
+        <v>2.53299854</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>2.339958232464654</v>
       </c>
       <c r="E15" s="7" t="n">
+        <v>28.31040870415242</v>
+      </c>
+      <c r="F15" s="7" t="n">
         <v>70.62044075651856</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="G15" s="7" t="n">
         <v>1.069150539329002</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="H15" s="7" t="n">
         <v>98.93084946067098</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <v>28.31040870415242</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>1.069150539329002</v>
@@ -1315,16 +1315,16 @@
         <v>0.148648937046215</v>
       </c>
       <c r="K15" s="7" t="n">
+        <v>28.64991829931408</v>
+      </c>
+      <c r="L15" s="7" t="n">
         <v>68.39849651805126</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="M15" s="7" t="n">
         <v>2.951585182634657</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="N15" s="7" t="n">
         <v>97.04841481736534</v>
-      </c>
-      <c r="N15" s="7" t="n">
-        <v>28.64991829931408</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>2.951585182634657</v>
@@ -1333,13 +1333,13 @@
         <v>0.001592820489130435</v>
       </c>
       <c r="Q15" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="S15" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9" t="n">
         <v>100</v>
@@ -1356,22 +1356,22 @@
         <v>71</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>13.49884552</v>
+        <v>11.08028039</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0.6531873388405796</v>
       </c>
       <c r="E16" s="7" t="n">
+        <v>56.71630444762222</v>
+      </c>
+      <c r="F16" s="7" t="n">
         <v>24.43421765802317</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="G16" s="7" t="n">
         <v>18.84947789435462</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="H16" s="7" t="n">
         <v>81.15052210564539</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>56.71630444762222</v>
       </c>
       <c r="I16" s="7" t="n">
         <v>18.84947789435462</v>
@@ -1380,16 +1380,16 @@
         <v>2.560106884223044</v>
       </c>
       <c r="K16" s="7" t="n">
+        <v>12.28773731872246</v>
+      </c>
+      <c r="L16" s="7" t="n">
         <v>19.14085461948806</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="M16" s="7" t="n">
         <v>68.57140806178947</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="N16" s="7" t="n">
         <v>31.42859193821052</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>12.28773731872246</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>68.57140806178947</v>
@@ -1398,16 +1398,16 @@
         <v>5.874928006936376</v>
       </c>
       <c r="Q16" s="7" t="n">
+        <v>23.8112616163748</v>
+      </c>
+      <c r="R16" s="7" t="n">
         <v>30.05108545375842</v>
       </c>
-      <c r="R16" s="7" t="n">
+      <c r="S16" s="7" t="n">
         <v>46.13765292986679</v>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="T16" s="7" t="n">
         <v>53.86234707013322</v>
-      </c>
-      <c r="T16" s="7" t="n">
-        <v>23.8112616163748</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>46.13765292986679</v>
@@ -1421,22 +1421,22 @@
         <v>77</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>1.95852772</v>
+        <v>1.54110561</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>1.126265005036603</v>
       </c>
       <c r="E17" s="7" t="n">
+        <v>44.36785573599059</v>
+      </c>
+      <c r="F17" s="7" t="n">
         <v>37.29635383920956</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="G17" s="7" t="n">
         <v>18.33579042479986</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="H17" s="7" t="n">
         <v>81.66420957520015</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>44.36785573599059</v>
       </c>
       <c r="I17" s="7" t="n">
         <v>18.33579042479986</v>
@@ -1445,16 +1445,16 @@
         <v>0.1956163908254663</v>
       </c>
       <c r="K17" s="7" t="n">
+        <v>38.56310665272832</v>
+      </c>
+      <c r="L17" s="7" t="n">
         <v>42.15608380349937</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="M17" s="7" t="n">
         <v>19.28080954377231</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="N17" s="7" t="n">
         <v>80.71919045622769</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>38.56310665272832</v>
       </c>
       <c r="O17" s="7" t="n">
         <v>19.28080954377231</v>
@@ -1463,16 +1463,16 @@
         <v>0.00472</v>
       </c>
       <c r="Q17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="R17" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9" t="n">
         <v>100</v>
-      </c>
-      <c r="T17" s="9" t="n">
-        <v>0</v>
       </c>
       <c r="U17" s="9" t="n">
         <v>0</v>
@@ -1486,22 +1486,22 @@
         <v>81</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0.3878630200000001</v>
+        <v>0.3627843100000001</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.1813472669394837</v>
       </c>
       <c r="E18" s="7" t="n">
+        <v>5.313232948864901</v>
+      </c>
+      <c r="F18" s="7" t="n">
         <v>89.58113273895454</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="G18" s="7" t="n">
         <v>5.105634312180571</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="H18" s="7" t="n">
         <v>94.89436568781943</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>5.313232948864901</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>5.105634312180571</v>
@@ -1509,17 +1509,17 @@
       <c r="J18" s="10" t="n">
         <v>0.03101368008453935</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="n">
         <v>99.59294412280427</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="M18" s="7" t="n">
         <v>0.4070558771957233</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="N18" s="7" t="n">
         <v>99.59294412280427</v>
-      </c>
-      <c r="N18" s="9" t="n">
-        <v>0</v>
       </c>
       <c r="O18" s="7" t="n">
         <v>0.4070558771957233</v>
@@ -1528,16 +1528,16 @@
         <v>0.1154243829759769</v>
       </c>
       <c r="Q18" s="7" t="n">
+        <v>0.5330846708679984</v>
+      </c>
+      <c r="R18" s="7" t="n">
         <v>96.75935235199569</v>
       </c>
-      <c r="R18" s="7" t="n">
+      <c r="S18" s="7" t="n">
         <v>2.707562977136309</v>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="T18" s="7" t="n">
         <v>97.29243702286368</v>
-      </c>
-      <c r="T18" s="7" t="n">
-        <v>0.5330846708679984</v>
       </c>
       <c r="U18" s="7" t="n">
         <v>2.707562977136309</v>
@@ -1551,22 +1551,22 @@
         <v>87</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>10.03823625</v>
+        <v>9.569458259999999</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>8.557087848215346</v>
       </c>
       <c r="E19" s="7" t="n">
+        <v>18.17055432603896</v>
+      </c>
+      <c r="F19" s="7" t="n">
         <v>67.93886123495105</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="G19" s="7" t="n">
         <v>13.89058443901001</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="H19" s="7" t="n">
         <v>86.10941556099002</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>18.17055432603896</v>
       </c>
       <c r="I19" s="7" t="n">
         <v>13.89058443901001</v>
@@ -1574,14 +1574,14 @@
       <c r="J19" s="7" t="n">
         <v>0.6154696528755617</v>
       </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="n">
+      <c r="K19" s="7" t="n">
+        <v>10.35842121427861</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="n">
         <v>89.64157878572139</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <v>10.35842121427861</v>
       </c>
       <c r="N19" s="7" t="n">
         <v>10.35842121427861</v>
@@ -1593,16 +1593,16 @@
         <v>0.0720920629090909</v>
       </c>
       <c r="Q19" s="7" t="n">
+        <v>2.077935637041902</v>
+      </c>
+      <c r="R19" s="7" t="n">
         <v>39.01801511141514</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="S19" s="7" t="n">
         <v>58.90404925154294</v>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="T19" s="7" t="n">
         <v>41.09595074845704</v>
-      </c>
-      <c r="T19" s="7" t="n">
-        <v>2.077935637041902</v>
       </c>
       <c r="U19" s="7" t="n">
         <v>58.90404925154294</v>
@@ -1618,22 +1618,22 @@
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>0.38665752</v>
+        <v>0.38665748</v>
       </c>
       <c r="D20" s="11" t="n">
         <v>0.008373963333333335</v>
       </c>
       <c r="E20" s="7" t="n">
+        <v>81.68533498076776</v>
+      </c>
+      <c r="F20" s="7" t="n">
         <v>18.31466501923224</v>
       </c>
-      <c r="F20" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
         <v>100</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>81.68533498076776</v>
       </c>
       <c r="I20" s="9" t="n">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>0.00871426666666667</v>
       </c>
       <c r="K20" s="7" t="n">
+        <v>69.36437565983751</v>
+      </c>
+      <c r="L20" s="7" t="n">
         <v>30.63562434016248</v>
       </c>
-      <c r="L20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7" t="n">
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7" t="n">
         <v>99.99999999999999</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>69.36437565983751</v>
       </c>
       <c r="O20" s="9" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0.36793152</v>
       </c>
       <c r="Q20" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="9" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="9" t="n">
         <v>100</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>1.014451</v>
+        <v>0.375009</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>0.2866187200854701</v>
       </c>
       <c r="E21" s="7" t="n">
+        <v>1.480622120451408</v>
+      </c>
+      <c r="F21" s="7" t="n">
         <v>92.07774696305981</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="G21" s="7" t="n">
         <v>6.441630916488783</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="H21" s="7" t="n">
         <v>93.55836908351122</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>1.480622120451408</v>
       </c>
       <c r="I21" s="7" t="n">
         <v>6.441630916488783</v>
@@ -1709,16 +1709,16 @@
         <v>0.0882919688034188</v>
       </c>
       <c r="K21" s="7" t="n">
+        <v>79.01705320576171</v>
+      </c>
+      <c r="L21" s="7" t="n">
         <v>2.029760360883459</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="M21" s="7" t="n">
         <v>18.95318643335483</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="N21" s="7" t="n">
         <v>81.04681356664517</v>
-      </c>
-      <c r="N21" s="7" t="n">
-        <v>79.01705320576171</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>18.95318643335483</v>
@@ -1727,16 +1727,16 @@
         <v>9.83111111111111e-05</v>
       </c>
       <c r="Q21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="R21" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9" t="n">
         <v>100</v>
-      </c>
-      <c r="T21" s="9" t="n">
-        <v>0</v>
       </c>
       <c r="U21" s="9" t="n">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>0.07928484</v>
       </c>
       <c r="E22" s="7" t="n">
+        <v>60.73272015179699</v>
+      </c>
+      <c r="F22" s="7" t="n">
         <v>28.64299152271734</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="G22" s="7" t="n">
         <v>10.62428832548568</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="H22" s="7" t="n">
         <v>89.37571167451432</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>60.73272015179699</v>
       </c>
       <c r="I22" s="7" t="n">
         <v>10.62428832548568</v>
@@ -1805,16 +1805,16 @@
         <v>4.9966005</v>
       </c>
       <c r="E23" s="7" t="n">
+        <v>82.48608869170148</v>
+      </c>
+      <c r="F23" s="7" t="n">
         <v>16.79627658845249</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="G23" s="7" t="n">
         <v>0.7176347198460232</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="H23" s="7" t="n">
         <v>99.28236528015397</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>82.48608869170148</v>
       </c>
       <c r="I23" s="7" t="n">
         <v>0.7176347198460232</v>
@@ -1835,6 +1835,73 @@
       <c r="S23" s="7" t="n"/>
       <c r="T23" s="7" t="n"/>
       <c r="U23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>80.28049283000001</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>46.52314661474774</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>28.88175040956617</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>50.67242174015865</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>20.44582785027518</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>79.55417214972482</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>20.44582785027518</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>15.46623318759747</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>20.18786274862977</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>48.98928489364193</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>30.8228523577283</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>69.17714764227171</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>30.8228523577283</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>7.837720767106454</v>
+      </c>
+      <c r="Q24" s="7" t="n">
+        <v>25.17902390817012</v>
+      </c>
+      <c r="R24" s="7" t="n">
+        <v>32.54787169656901</v>
+      </c>
+      <c r="S24" s="7" t="n">
+        <v>42.27310439526087</v>
+      </c>
+      <c r="T24" s="7" t="n">
+        <v>57.72689560473913</v>
+      </c>
+      <c r="U24" s="7" t="n">
+        <v>42.27310439526087</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -831,7 +831,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1.11276046</v>
+        <v>1.11323627</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0.5460873587517039</v>
@@ -1041,7 +1041,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1.40545502</v>
+        <v>1.42110916</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>1.045020003845707</v>
@@ -1106,7 +1106,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>4.57255396</v>
+        <v>4.57978039</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>2.120051651354609</v>
@@ -1171,7 +1171,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5.55043587</v>
+        <v>5.569185109999999</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>3.081241117093891</v>
@@ -1356,7 +1356,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>11.08028039</v>
+        <v>11.0806615</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0.6531873388405796</v>
@@ -1421,7 +1421,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>1.54110561</v>
+        <v>1.5449858</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>1.126265005036603</v>
@@ -1486,7 +1486,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0.3627843100000001</v>
+        <v>0.36511338</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.1813472669394837</v>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>80.28049283000001</v>
+        <v>80.32918882000001</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>46.52314661474774</v>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -1755,22 +1755,22 @@
         <v>0.13268879</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0.07928484</v>
+        <v>0.05711541</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>80.32918882000001</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.52314661474774</v>
+        <v>46.50097718474774</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>28.88175040956617</v>
+        <v>28.85104346226171</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.67242174015865</v>
+        <v>50.69338109984752</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.44582785027518</v>
+        <v>20.45557543789076</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.55417214972482</v>
+        <v>79.54442456210923</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.44582785027518</v>
+        <v>20.45557543789076</v>
       </c>
       <c r="J24" s="7" t="n">
         <v>15.46623318759747</v>
@@ -1885,22 +1885,22 @@
         <v>30.8228523577283</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.837720767106454</v>
+        <v>7.828518787106455</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>25.17902390817012</v>
+        <v>25.20862042326108</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>32.54787169656901</v>
+        <v>32.46858554391547</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>42.27310439526087</v>
+        <v>42.32279403282344</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>57.72689560473913</v>
+        <v>57.67720596717656</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>42.27310439526087</v>
+        <v>42.32279403282344</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -16,8 +16,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -132,8 +132,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,7 +831,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1.11323627</v>
+        <v>1.113236270000001</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0.5460873587517039</v>
@@ -1044,22 +1044,22 @@
         <v>1.42110916</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>1.045020003845707</v>
+        <v>1.044364863845707</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>5.773136378058038</v>
+        <v>5.776757921349713</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>49.63719960198805</v>
+        <v>49.60560653887862</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>44.58966401995391</v>
+        <v>44.61763553977167</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>55.41033598004609</v>
+        <v>55.38236446022833</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>44.58966401995391</v>
+        <v>44.61763553977167</v>
       </c>
       <c r="J11" s="10" t="n">
         <v>0.05993577877689475</v>
@@ -1106,7 +1106,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>4.57978039</v>
+        <v>4.579780390000003</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>2.120051651354609</v>
@@ -1127,22 +1127,22 @@
         <v>40.7829090059786</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>1.419829828948436</v>
+        <v>1.419332573948435</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>32.8081523026836</v>
+        <v>32.78461202548571</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>56.05161597466562</v>
+        <v>56.07125333578384</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>11.14023172265078</v>
+        <v>11.14413463873044</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>88.85976827734922</v>
+        <v>88.85586536126957</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>11.14023172265078</v>
+        <v>11.14413463873044</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>0.7851771486969554</v>
@@ -1171,7 +1171,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5.569185109999999</v>
+        <v>5.56918511</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>3.081241117093891</v>
@@ -1192,22 +1192,22 @@
         <v>28.16038337601558</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>2.05476123236952</v>
+        <v>2.05457884736952</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>0.002561368161463114</v>
+        <v>0.002561595534159337</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>97.37295601560427</v>
+        <v>97.37272281286411</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>2.624482616234264</v>
+        <v>2.624715591601735</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>97.37551738376574</v>
+        <v>97.37528440839827</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>2.624482616234264</v>
+        <v>2.624715591601735</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>0.3439386563112486</v>
@@ -1395,22 +1395,22 @@
         <v>68.57140806178947</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>5.874928006936376</v>
+        <v>5.874737451936376</v>
       </c>
       <c r="Q16" s="7" t="n">
-        <v>23.8112616163748</v>
+        <v>23.8120339666278</v>
       </c>
       <c r="R16" s="7" t="n">
-        <v>30.05108545375842</v>
+        <v>30.0520602010787</v>
       </c>
       <c r="S16" s="7" t="n">
-        <v>46.13765292986679</v>
+        <v>46.13590583229351</v>
       </c>
       <c r="T16" s="7" t="n">
-        <v>53.86234707013322</v>
+        <v>53.8640941677065</v>
       </c>
       <c r="U16" s="7" t="n">
-        <v>46.13765292986679</v>
+        <v>46.13590583229351</v>
       </c>
     </row>
     <row r="17">
@@ -1421,7 +1421,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>1.5449858</v>
+        <v>1.544985800000001</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>1.126265005036603</v>
@@ -1442,22 +1442,22 @@
         <v>18.33579042479986</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.1956163908254663</v>
+        <v>0.1936762958254663</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>38.56310665272832</v>
+        <v>37.94768074791864</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>42.15608380349937</v>
+        <v>42.57836990236432</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>19.28080954377231</v>
+        <v>19.47394934971704</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>80.71919045622769</v>
+        <v>80.52605065028297</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>19.28080954377231</v>
+        <v>19.47394934971704</v>
       </c>
       <c r="P17" s="11" t="n">
         <v>0.00472</v>
@@ -1486,7 +1486,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0.36511338</v>
+        <v>0.3651133800000001</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.1813472669394837</v>
@@ -1751,26 +1751,26 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="C22" s="7" t="n">
-        <v>0.13268879</v>
+      <c r="C22" s="10" t="n">
+        <v>0.08399280000000002</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0.05711541</v>
+        <v>0.05642497</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>0</v>
@@ -1846,61 +1846,61 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>80.32918882000001</v>
+        <v>80.28049283000003</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.50097718474774</v>
+        <v>46.49963160474774</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>28.85104346226171</v>
+        <v>28.85187833741496</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.69338109984752</v>
+        <v>50.69336320722707</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.45557543789076</v>
+        <v>20.45475845535797</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.54442456210923</v>
+        <v>79.54524154464202</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.45557543789076</v>
+        <v>20.45475845535797</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.46623318759747</v>
+        <v>15.46361345259747</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.18786274862977</v>
+        <v>20.17552099228884</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.98928489364193</v>
+        <v>48.99640486237359</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.8228523577283</v>
+        <v>30.82807414533758</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.17714764227171</v>
+        <v>69.17192585466243</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.8228523577283</v>
+        <v>30.82807414533758</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.828518787106455</v>
+        <v>7.828328232106454</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>25.20862042326108</v>
+        <v>25.20923404452508</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>32.46858554391547</v>
+        <v>32.46937588524186</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>42.32279403282344</v>
+        <v>42.32139007023306</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>57.67720596717656</v>
+        <v>57.67860992976694</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>42.32279403282344</v>
+        <v>42.32139007023306</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -714,40 +714,40 @@
         <v>1.61573879</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.0572621525413</v>
+        <v>1.035825651653654</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>17.8973951376953</v>
+        <v>18.2677832683071</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>62.80322312976857</v>
+        <v>62.67199190538536</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>19.29938173253613</v>
+        <v>19.06022482630755</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>80.70061826746387</v>
+        <v>80.93977517369245</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>19.29938173253613</v>
+        <v>19.06022482630755</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.3927549921253004</v>
+        <v>0.3869388155426705</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>6.556546957624381</v>
+        <v>6.655100096637757</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>86.14186288995843</v>
+        <v>86.09483034719469</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>7.301590152417186</v>
+        <v>7.250069556167555</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>92.69840984758281</v>
+        <v>92.74993044383244</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>7.301590152417186</v>
+        <v>7.250069556167555</v>
       </c>
       <c r="P5" s="9" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>8.03285533</v>
+        <v>8.03286593</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>7.002092515237123</v>
@@ -787,22 +787,22 @@
         <v>12.66269810952908</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.3175748834292283</v>
+        <v>0.3175744464262313</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>2.283015202917102</v>
+        <v>2.283018344493816</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>67.55079418012023</v>
+        <v>67.55088713438603</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>30.16619061696267</v>
+        <v>30.16609452112015</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>69.83380938303733</v>
+        <v>69.83390547887984</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>30.16619061696267</v>
+        <v>30.16609452112015</v>
       </c>
       <c r="P6" s="10" t="n">
         <v>0.01452341029916672</v>
@@ -1755,22 +1755,22 @@
         <v>0.08399280000000002</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0.05642497</v>
+        <v>0.05364998000000001</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>0</v>
@@ -1846,43 +1846,43 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>80.28049283000003</v>
+        <v>80.28050343000002</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.49963160474774</v>
+        <v>46.17195226549329</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>28.85187833741496</v>
+        <v>29.05515303058552</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.69336320722707</v>
+        <v>50.87049853954008</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.45475845535797</v>
+        <v>20.07434842987439</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.54524154464202</v>
+        <v>79.92565157012559</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.45475845535797</v>
+        <v>20.07434842987439</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.46361345259747</v>
+        <v>15.45779683901184</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.17552099228884</v>
+        <v>20.18311283805593</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.99640486237359</v>
+        <v>48.98125251884212</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.82807414533758</v>
+        <v>30.83563464310195</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.17192585466243</v>
+        <v>69.16436535689806</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.82807414533758</v>
+        <v>30.83563464310195</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>7.828328232106454</v>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -714,40 +714,40 @@
         <v>1.61573879</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.035825651653654</v>
+        <v>1.092594281123578</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>18.2677832683071</v>
+        <v>17.31863220874915</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>62.67199190538536</v>
+        <v>62.1192304706071</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>19.06022482630755</v>
+        <v>20.56213732064376</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>80.93977517369245</v>
+        <v>79.43786267935624</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>19.06022482630755</v>
+        <v>20.56213732064376</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.3869388155426705</v>
+        <v>0.4196832971646435</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>6.655100096637757</v>
+        <v>6.135856647401186</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>86.09483034719469</v>
+        <v>86.7585772035616</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>7.250069556167555</v>
+        <v>7.105566149037212</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>92.74993044383244</v>
+        <v>92.89443385096278</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>7.250069556167555</v>
+        <v>7.105566149037212</v>
       </c>
       <c r="P5" s="9" t="n">
         <v>0</v>
@@ -769,40 +769,40 @@
         <v>8.03286593</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>7.002092515237123</v>
+        <v>7.002092952240119</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>3.441094970651447</v>
+        <v>3.441094755891542</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>83.89620691981948</v>
+        <v>83.89620168382874</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>12.66269810952908</v>
+        <v>12.66270356027973</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>87.33730189047093</v>
+        <v>87.33729643972028</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>12.66269810952908</v>
+        <v>12.66270356027973</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.3175744464262313</v>
+        <v>0.3175443305464283</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>2.283018344493816</v>
+        <v>2.283234865777419</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>67.55088713438603</v>
+        <v>67.54780966302607</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>30.16609452112015</v>
+        <v>30.1689554711965</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>69.83390547887984</v>
+        <v>69.83104452880349</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>30.16609452112015</v>
+        <v>30.1689554711965</v>
       </c>
       <c r="P6" s="10" t="n">
         <v>0.01452341029916672</v>
@@ -1044,58 +1044,58 @@
         <v>1.42110916</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>1.044364863845707</v>
+        <v>1.044324695981665</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>5.776757921349713</v>
+        <v>5.776980112807673</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>49.60560653887862</v>
+        <v>49.60751451947775</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>44.61763553977167</v>
+        <v>44.61550536771457</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>55.38236446022833</v>
+        <v>55.38449463228542</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>44.61763553977167</v>
+        <v>44.61550536771457</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>0.05993577877689475</v>
+        <v>0.05999603057295646</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>42.4272619288117</v>
+        <v>42.1863762231618</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>17.64062922552464</v>
+        <v>18.05551901089471</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>39.93210884566366</v>
+        <v>39.75810476594349</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>60.06789115433634</v>
+        <v>60.24189523405651</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>39.93210884566366</v>
+        <v>39.75810476594349</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>0.2480744173773987</v>
+        <v>0.2480723834453782</v>
       </c>
       <c r="Q11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>2.338802227709514</v>
+        <v>2.346097505561913</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>97.66119777229049</v>
+        <v>97.6539024944381</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>2.338802227709514</v>
+        <v>2.346097505561913</v>
       </c>
       <c r="U11" s="7" t="n">
-        <v>97.66119777229049</v>
+        <v>97.6539024944381</v>
       </c>
     </row>
     <row r="12">
@@ -1239,40 +1239,40 @@
         <v>18.88724254</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>7.773184509659753</v>
+        <v>7.85347597368107</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>34.0867144816123</v>
+        <v>33.46688314673074</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>33.42537774516912</v>
+        <v>33.2386983601521</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>32.48790777321857</v>
+        <v>33.29441849311716</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>67.51209222678142</v>
+        <v>66.70558150688285</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>32.48790777321857</v>
+        <v>33.29441849311716</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>6.599457860339248</v>
+        <v>6.52632063631793</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>28.49277399160101</v>
+        <v>28.81207831490012</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>50.34412760909556</v>
+        <v>50.9516450695526</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>21.16309839930342</v>
+        <v>20.23627661554728</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>78.83690160069656</v>
+        <v>79.76372338445272</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>21.16309839930342</v>
+        <v>20.23627661554728</v>
       </c>
       <c r="P14" s="9" t="n">
         <v>0</v>
@@ -1620,14 +1620,14 @@
       <c r="C20" s="7" t="n">
         <v>0.38665748</v>
       </c>
-      <c r="D20" s="11" t="n">
-        <v>0.008373963333333335</v>
+      <c r="D20" s="7" t="n">
+        <v>0.38194148</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>81.68533498076776</v>
+        <v>99.19691187595893</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>18.31466501923224</v>
+        <v>0.8030881240410616</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>0</v>
@@ -1639,41 +1639,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="11" t="n">
-        <v>0.00871426666666667</v>
+        <v>0.00307827</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>69.36437565983751</v>
+        <v>9.500466170933674</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>30.63562434016248</v>
+        <v>90.49953382906634</v>
       </c>
       <c r="M20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N20" s="7" t="n">
-        <v>99.99999999999999</v>
+      <c r="N20" s="9" t="n">
+        <v>100</v>
       </c>
       <c r="O20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P20" s="7" t="n">
-        <v>0.36793152</v>
-      </c>
-      <c r="Q20" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="R20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="U20" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="P20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7" t="n"/>
+      <c r="R20" s="7" t="n"/>
+      <c r="S20" s="7" t="n"/>
+      <c r="T20" s="7" t="n"/>
+      <c r="U20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
@@ -1849,58 +1839,58 @@
         <v>80.28050343000002</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.17195226549329</v>
+        <v>46.64073965315696</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>29.05515303058552</v>
+        <v>29.51508865593496</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.87049853954008</v>
+        <v>50.42816107340078</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.07434842987439</v>
+        <v>20.05675027066426</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.92565157012559</v>
+        <v>79.94324972933575</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.07434842987439</v>
+        <v>20.05675027066426</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.45779683901184</v>
+        <v>15.37559166586209</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.18311283805593</v>
+        <v>20.25283670785922</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.98125251884212</v>
+        <v>49.25789432410819</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.83563464310195</v>
+        <v>30.48926896803257</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.16436535689806</v>
+        <v>69.51073103196742</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.83563464310195</v>
+        <v>30.48926896803257</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.828328232106454</v>
+        <v>7.460376628174433</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>25.20923404452508</v>
+        <v>21.52076424321521</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>32.46937588524186</v>
+        <v>34.07079087152116</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>42.32139007023306</v>
+        <v>44.40844488526362</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>57.67860992976694</v>
+        <v>55.59155511473638</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>42.32139007023306</v>
+        <v>44.40844488526362</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -769,59 +769,39 @@
         <v>8.03286593</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>7.002092952240119</v>
+        <v>7.334160693085714</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>3.441094755891542</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>83.89620168382874</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>12.66270356027973</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>87.33729643972028</v>
+        <v>86.58409431345969</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>12.66270356027973</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>0.3175443305464283</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>2.283234865777419</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>67.54780966302607</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>30.1689554711965</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>69.83104452880349</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>30.1689554711965</v>
-      </c>
-      <c r="P6" s="10" t="n">
-        <v>0.01452341029916672</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>88.85644967298151</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>0.8842502609057115</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>10.25930006611278</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>89.74069993388723</v>
-      </c>
-      <c r="U6" s="7" t="n">
-        <v>10.25930006611278</v>
-      </c>
+        <v>13.41590568654031</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="n"/>
+      <c r="L6" s="7" t="n"/>
+      <c r="M6" s="7" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="n"/>
+      <c r="R6" s="7" t="n"/>
+      <c r="S6" s="7" t="n"/>
+      <c r="T6" s="7" t="n"/>
+      <c r="U6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="n">
@@ -1839,58 +1819,58 @@
         <v>80.28050343000002</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.64073965315696</v>
+        <v>46.97280739400255</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>29.51508865593496</v>
+        <v>29.3493442118725</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.42816107340078</v>
+        <v>50.52857450550554</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.05675027066426</v>
+        <v>20.12208128262197</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.94324972933575</v>
+        <v>79.87791871737804</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.05675027066426</v>
+        <v>20.12208128262197</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.37559166586209</v>
+        <v>15.05804733531566</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.25283670785922</v>
+        <v>20.63177994399497</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>49.25789432410819</v>
+        <v>48.87219631209395</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.48926896803257</v>
+        <v>30.49602374391107</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.51073103196742</v>
+        <v>69.50397625608892</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.48926896803257</v>
+        <v>30.49602374391107</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.460376628174433</v>
+        <v>7.445853217875268</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>21.52076424321521</v>
+        <v>21.38942351453628</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>34.07079087152116</v>
+        <v>34.13552243842082</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>44.40844488526362</v>
+        <v>44.4750540470429</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>55.59155511473638</v>
+        <v>55.5249459529571</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>44.40844488526362</v>
+        <v>44.4750540470429</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -714,40 +714,40 @@
         <v>1.61573879</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.092594281123578</v>
+        <v>1.089055169661443</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>17.31863220874915</v>
+        <v>17.37491270900841</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>62.1192304706071</v>
+        <v>62.32106256355085</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>20.56213732064376</v>
+        <v>20.30402472744073</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>79.43786267935624</v>
+        <v>79.69597527255927</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>20.56213732064376</v>
+        <v>20.30402472744073</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.4196832971646435</v>
+        <v>0.423244335729989</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>6.135856647401186</v>
+        <v>6.084231568674163</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>86.7585772035616</v>
+        <v>86.00264733357913</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>7.105566149037212</v>
+        <v>7.913121097746699</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>92.89443385096278</v>
+        <v>92.08687890225329</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>7.105566149037212</v>
+        <v>7.913121097746699</v>
       </c>
       <c r="P5" s="9" t="n">
         <v>0</v>
@@ -924,22 +924,22 @@
         <v>1.10877186</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.7436210511818182</v>
+        <v>0.7398957966371682</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.40321416957853</v>
+        <v>5.389935808021984</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>52.75092859445264</v>
+        <v>53.64100303270093</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>58.15414276403117</v>
+        <v>59.03093884072291</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>0</v>
@@ -1469,58 +1469,58 @@
         <v>0.3651133800000001</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>0.1813472669394837</v>
+        <v>0.1812551740115241</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>5.313232948864901</v>
+        <v>5.314728704171736</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>89.58113273895454</v>
+        <v>89.58992772063625</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>5.105634312180571</v>
+        <v>5.095343575192008</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>94.89436568781943</v>
+        <v>94.904656424808</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>5.105634312180571</v>
+        <v>5.095343575192008</v>
       </c>
       <c r="J18" s="10" t="n">
-        <v>0.03101368008453935</v>
+        <v>0.03106024370562068</v>
       </c>
       <c r="K18" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>99.59294412280427</v>
+        <v>99.51377058158526</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>0.4070558771957233</v>
+        <v>0.4862294184147463</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>99.59294412280427</v>
+        <v>99.51377058158526</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>0.4070558771957233</v>
+        <v>0.4862294184147463</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>0.1154243829759769</v>
+        <v>0.1154699122828552</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>0.5330846708679984</v>
+        <v>0.5319296524885614</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>96.75935235199569</v>
+        <v>96.75084443521978</v>
       </c>
       <c r="S18" s="7" t="n">
-        <v>2.707562977136309</v>
+        <v>2.717225912291666</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>97.29243702286368</v>
+        <v>97.28277408770833</v>
       </c>
       <c r="U18" s="7" t="n">
-        <v>2.707562977136309</v>
+        <v>2.717225912291666</v>
       </c>
     </row>
     <row r="19">
@@ -1819,58 +1819,58 @@
         <v>80.28050343000002</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.97280739400255</v>
+        <v>46.9654509350678</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>29.3493442118725</v>
+        <v>29.35329895076938</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.52857450550554</v>
+        <v>50.54618461712514</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.12208128262197</v>
+        <v>20.10051643210547</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.87791871737804</v>
+        <v>79.89948356789452</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.12208128262197</v>
+        <v>20.10051643210547</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.05804733531566</v>
+        <v>15.06165493750209</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.63177994399497</v>
+        <v>20.62683817267272</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.87219631209395</v>
+        <v>48.85990512757309</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.49602374391107</v>
+        <v>30.5132566997542</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.50397625608892</v>
+        <v>69.48674330024581</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.49602374391107</v>
+        <v>30.5132566997542</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.445853217875268</v>
+        <v>7.445898747182145</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>21.38942351453628</v>
+        <v>21.38927807278918</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>34.13552243842082</v>
+        <v>34.13577342372557</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>44.4750540470429</v>
+        <v>44.47494850348524</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>55.5249459529571</v>
+        <v>55.52505149651475</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>44.4750540470429</v>
+        <v>44.47494850348524</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1.113236270000001</v>
+        <v>1.11323627</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0.5460873587517039</v>
@@ -869,40 +869,40 @@
         <v>4.83827694</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>3.05479828795947</v>
+        <v>3.066807467110177</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>38.24094883974463</v>
+        <v>38.30657450657539</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>27.02099370997074</v>
+        <v>31.12711682596247</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>34.73805745028463</v>
+        <v>30.56630866746213</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>65.26194254971536</v>
+        <v>69.43369133253788</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>34.73805745028463</v>
+        <v>30.56630866746213</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.51142463204253</v>
+        <v>0.4994154528918229</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>12.58235749341181</v>
+        <v>12.94351164829403</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>15.42710425314383</v>
+        <v>16.11302417127359</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>71.99053825344434</v>
+        <v>70.94346418043239</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>28.00946174655565</v>
+        <v>29.05653581956762</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>71.99053825344434</v>
+        <v>70.94346418043239</v>
       </c>
       <c r="P8" s="9" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>4.579780390000003</v>
+        <v>4.57978039</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>2.120051651354609</v>
@@ -1107,40 +1107,40 @@
         <v>40.7829090059786</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>1.419332573948435</v>
+        <v>1.419269276948436</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>32.78461202548571</v>
+        <v>32.78607416351765</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>56.07125333578384</v>
+        <v>56.06929418826845</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>11.14413463873044</v>
+        <v>11.1446316482139</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>88.85586536126957</v>
+        <v>88.8553683517861</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>11.14413463873044</v>
+        <v>11.1446316482139</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>0.7851771486969554</v>
+        <v>0.7852404456969553</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>24.2014741519471</v>
+        <v>24.19952330909662</v>
       </c>
       <c r="R12" s="7" t="n">
-        <v>41.04244795812282</v>
+        <v>41.04720043386709</v>
       </c>
       <c r="S12" s="7" t="n">
-        <v>34.75607788993008</v>
+        <v>34.75327625703628</v>
       </c>
       <c r="T12" s="7" t="n">
-        <v>65.24392211006992</v>
+        <v>65.24672374296371</v>
       </c>
       <c r="U12" s="7" t="n">
-        <v>34.75607788993008</v>
+        <v>34.75327625703628</v>
       </c>
     </row>
     <row r="13">
@@ -1151,7 +1151,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5.56918511</v>
+        <v>5.569185109999999</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>3.081241117093891</v>
@@ -1401,7 +1401,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>1.544985800000001</v>
+        <v>1.5449858</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>1.126265005036603</v>
@@ -1466,7 +1466,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0.3651133800000001</v>
+        <v>0.36511338</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0.1812551740115241</v>
@@ -1819,58 +1819,58 @@
         <v>80.28050343000002</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.9654509350678</v>
+        <v>46.97746011421852</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>29.35329895076938</v>
+        <v>29.35985517292501</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.54618461712514</v>
+        <v>50.80822881387201</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20.10051643210547</v>
+        <v>19.83191601320297</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>79.89948356789452</v>
+        <v>80.16808398679703</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>20.10051643210547</v>
+        <v>19.83191601320297</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.06165493750209</v>
+        <v>15.04958246135138</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.62683817267272</v>
+        <v>20.64532899746246</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.85990512757309</v>
+        <v>48.90913057878335</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.5132566997542</v>
+        <v>30.44554042375418</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.48674330024581</v>
+        <v>69.55445957624582</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.5132566997542</v>
+        <v>30.44554042375418</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.445898747182145</v>
+        <v>7.445962044182146</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>21.38927807278918</v>
+        <v>21.38909624576318</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>34.13577342372557</v>
+        <v>34.13633332557907</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>44.47494850348524</v>
+        <v>44.47457042865774</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>55.52505149651475</v>
+        <v>55.52542957134225</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>44.47494850348524</v>
+        <v>44.47457042865774</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -869,22 +869,22 @@
         <v>4.83827694</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>3.066807467110177</v>
+        <v>3.066807417110177</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>38.30657450657539</v>
+        <v>38.30657513111045</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>31.12711682596247</v>
+        <v>31.12711733344652</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>30.56630866746213</v>
+        <v>30.56630753544303</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>69.43369133253788</v>
+        <v>69.43369246455697</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>30.56630866746213</v>
+        <v>30.56630753544303</v>
       </c>
       <c r="J8" s="7" t="n">
         <v>0.4994154528918229</v>
@@ -1422,22 +1422,22 @@
         <v>18.33579042479986</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>0.1936762958254663</v>
+        <v>0.1938647908254663</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>37.94768074791864</v>
+        <v>38.00801430239038</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>42.57836990236432</v>
+        <v>42.53697089535241</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>19.47394934971704</v>
+        <v>19.45501480225721</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>80.52605065028297</v>
+        <v>80.54498519774279</v>
       </c>
       <c r="O17" s="7" t="n">
-        <v>19.47394934971704</v>
+        <v>19.45501480225721</v>
       </c>
       <c r="P17" s="11" t="n">
         <v>0.00472</v>
@@ -1725,22 +1725,22 @@
         <v>0.08399280000000002</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0.05364998000000001</v>
+        <v>0.048410275</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="J22" s="9" t="n">
         <v>0</v>
@@ -1819,40 +1819,40 @@
         <v>80.28050343000002</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.97746011421852</v>
+        <v>46.97222035921851</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>29.35985517292501</v>
+        <v>29.35197536547227</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.80822881387201</v>
+        <v>50.81389647592701</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>19.83191601320297</v>
+        <v>19.83412815860072</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>80.16808398679703</v>
+        <v>80.16587184139928</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>19.83191601320297</v>
+        <v>19.83412815860072</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.04958246135138</v>
+        <v>15.04977095635138</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.64532899746246</v>
+        <v>20.64632289688818</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.90913057878335</v>
+        <v>48.90851800291125</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.44554042375418</v>
+        <v>30.44515910020057</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.55445957624582</v>
+        <v>69.55484089979943</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.44554042375418</v>
+        <v>30.44515910020057</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>7.445962044182146</v>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -115,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -134,6 +135,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,17 +528,25 @@
           <t>Tier 2</t>
         </is>
       </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tier 3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tier 3</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="n"/>
       <c r="R1" s="3" t="n"/>
       <c r="S1" s="3" t="n"/>
       <c r="T1" s="3" t="n"/>
@@ -557,16 +567,16 @@
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="L2" s="6" t="n"/>
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="4" t="n"/>
+      <c r="O2" s="6" t="n"/>
+      <c r="P2" s="5" t="n"/>
       <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
@@ -581,7 +591,7 @@
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Analysis Group</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -626,32 +636,32 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
+          <t>Total Landings (Mt)</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>Total Landings (Mt)</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -707,51 +717,43 @@
       <c r="A5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>21</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Area 21</t>
+        </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>1.61573879</v>
+        <v>1.61571179</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.089055169661443</v>
+        <v>1.4523022766666</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>17.37491270900841</v>
+        <v>14.80225942096207</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>62.32106256355085</v>
+        <v>69.85692867411942</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>20.30402472744073</v>
+        <v>15.34081190491851</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>79.69597527255927</v>
+        <v>84.65918809508149</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>20.30402472744073</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0.423244335729989</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>6.084231568674163</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>86.00264733357913</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>7.913121097746699</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>92.08687890225329</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>7.913121097746699</v>
-      </c>
-      <c r="P5" s="9" t="n">
-        <v>0</v>
-      </c>
+        <v>15.34081190491851</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="n"/>
+      <c r="M5" s="7" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="7" t="n"/>
       <c r="Q5" s="7" t="n"/>
       <c r="R5" s="7" t="n"/>
       <c r="S5" s="7" t="n"/>
@@ -762,41 +764,43 @@
       <c r="A6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>27</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Area 27</t>
+        </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>8.03286593</v>
+        <v>8.03279962</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>7.334160693085714</v>
+        <v>7.32892053</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>3.560106383556024</v>
+        <v>3.562651852288556</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>83.02398792990367</v>
+        <v>83.01185011623407</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>86.58409431345969</v>
+        <v>86.57450196852263</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="J6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="n"/>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L6" s="7" t="n"/>
       <c r="M6" s="7" t="n"/>
       <c r="N6" s="7" t="n"/>
       <c r="O6" s="7" t="n"/>
-      <c r="P6" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="P6" s="7" t="n"/>
       <c r="Q6" s="7" t="n"/>
       <c r="R6" s="7" t="n"/>
       <c r="S6" s="7" t="n"/>
@@ -807,50 +811,52 @@
       <c r="A7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>31</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Area 31</t>
+        </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1.11323627</v>
+        <v>1.11276046</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.5460873587517039</v>
+        <v>0.5309964951115336</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>91.95929730651638</v>
+        <v>94.57277070770527</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>4.032540783600372</v>
+        <v>3.145489068522551</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>4.008161909883256</v>
+        <v>2.281740223772186</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>95.99183809011674</v>
+        <v>97.71825977622782</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>4.008161909883256</v>
+        <v>2.281740223772186</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.3025211312482961</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>21.41916779533758</v>
+        <v>0.2131862348884664</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>17.96532534621166</v>
+        <v>12.1097300123211</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>60.61550685845075</v>
+        <v>16.18487001907159</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>39.38449314154924</v>
+        <v>71.70539996860731</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>60.61550685845075</v>
-      </c>
-      <c r="P7" s="9" t="n">
-        <v>0</v>
+        <v>28.29460003139269</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>71.70539996860731</v>
       </c>
       <c r="Q7" s="7" t="n"/>
       <c r="R7" s="7" t="n"/>
@@ -862,50 +868,52 @@
       <c r="A8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>34</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Area 34</t>
+        </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4.83827694</v>
+        <v>4.83828389</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>3.066807417110177</v>
+        <v>3.031695113970642</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>38.30657513111045</v>
+        <v>38.7502319065041</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>31.12711733344652</v>
+        <v>30.32944954583235</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>30.56630753544303</v>
+        <v>30.92031854766354</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>69.43369246455697</v>
+        <v>69.07968145233646</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>30.56630753544303</v>
+        <v>30.92031854766354</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.4994154528918229</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>12.94351164829403</v>
+        <v>0.3022463660313578</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>16.11302417127359</v>
+        <v>8.876416989167813</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>70.94346418043239</v>
+        <v>15.00717116820325</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>29.05653581956762</v>
+        <v>76.11641184262893</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>70.94346418043239</v>
-      </c>
-      <c r="P8" s="9" t="n">
-        <v>0</v>
+        <v>23.88358815737107</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>76.11641184262893</v>
       </c>
       <c r="Q8" s="7" t="n"/>
       <c r="R8" s="7" t="n"/>
@@ -917,41 +925,43 @@
       <c r="A9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>37</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Area 37</t>
+        </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>1.10877186</v>
+        <v>1.10877228</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.7398957966371682</v>
+        <v>0.8050351500000001</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.389935808021984</v>
+        <v>5.307988846238611</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>53.64100303270093</v>
+        <v>49.1264353287182</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>59.03093884072291</v>
+        <v>54.43442417495681</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="7" t="n"/>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" s="7" t="n"/>
       <c r="M9" s="7" t="n"/>
       <c r="N9" s="7" t="n"/>
       <c r="O9" s="7" t="n"/>
-      <c r="P9" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="P9" s="7" t="n"/>
       <c r="Q9" s="7" t="n"/>
       <c r="R9" s="7" t="n"/>
       <c r="S9" s="7" t="n"/>
@@ -962,50 +972,52 @@
       <c r="A10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>41</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Area 41</t>
+        </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>1.97234068</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>1.525795912206896</v>
+        <v>1.4958767</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.372348077128</v>
+        <v>1.061431734313396</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>70.89272462229575</v>
+        <v>71.37075630409022</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>27.73492730057626</v>
+        <v>27.56781196159638</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>72.26507269942374</v>
+        <v>72.43218803840362</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>27.73492730057626</v>
+        <v>27.56781196159638</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.1239044977931034</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>13.16933398987989</v>
+        <v>0.12120502</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>15.87793276882793</v>
+        <v>13.46264135170074</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>70.95273324129218</v>
+        <v>16.23156603343893</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>29.04726675870782</v>
+        <v>70.30579261486034</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>70.95273324129218</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>0</v>
+        <v>29.69420738513966</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>70.30579261486034</v>
       </c>
       <c r="Q10" s="7" t="n"/>
       <c r="R10" s="7" t="n"/>
@@ -1017,575 +1029,543 @@
       <c r="A11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>47</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Area 47</t>
+        </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1.42110916</v>
+        <v>1.40545456</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>1.044324695981665</v>
+        <v>1.026634449090909</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>5.776980112807673</v>
+        <v>5.876524994210252</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>49.60751451947775</v>
+        <v>47.61143278184102</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>44.61550536771457</v>
+        <v>46.51204222394873</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>55.38449463228542</v>
+        <v>53.48795777605127</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>44.61550536771457</v>
+        <v>46.51204222394873</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>0.05999603057295646</v>
+        <v>0.03939764090909091</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>42.1863762231618</v>
+        <v>0.24672676</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>18.05551901089471</v>
+        <v>44.01258450984778</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>39.75810476594349</v>
+        <v>9.104428380056442</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>60.24189523405651</v>
+        <v>46.88298711009576</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>39.75810476594349</v>
+        <v>53.11701288990422</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>0.2480723834453782</v>
+        <v>46.88298711009576</v>
       </c>
       <c r="Q11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>2.346097505561913</v>
+        <v>2.358892890256412</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>97.6539024944381</v>
+        <v>97.6411071097436</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>2.346097505561913</v>
+        <v>2.358892890256412</v>
       </c>
       <c r="U11" s="7" t="n">
-        <v>97.6539024944381</v>
+        <v>97.6411071097436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>51</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Area 48,58,88</t>
+        </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>4.57978039</v>
+        <v>0.3866574800000001</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>2.120051651354609</v>
+        <v>0.3832481849090487</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>22.1063996137466</v>
+        <v>99.19641314950395</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>37.1106913802748</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>40.7829090059786</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>59.2170909940214</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>40.7829090059786</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>1.419269276948436</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>32.78607416351765</v>
+        <v>0.8035868504960492</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="n">
+        <v>0.001771565090951312</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>56.06929418826845</v>
+        <v>6.227461865756569</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>11.1446316482139</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>88.8553683517861</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>11.1446316482139</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0.7852404456969553</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>24.19952330909662</v>
-      </c>
-      <c r="R12" s="7" t="n">
-        <v>41.04720043386709</v>
-      </c>
-      <c r="S12" s="7" t="n">
-        <v>34.75327625703628</v>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>65.24672374296371</v>
-      </c>
-      <c r="U12" s="7" t="n">
-        <v>34.75327625703628</v>
-      </c>
+        <v>93.77253813424343</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="n"/>
+      <c r="R12" s="7" t="n"/>
+      <c r="S12" s="7" t="n"/>
+      <c r="T12" s="7" t="n"/>
+      <c r="U12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>57</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Area 51</t>
+        </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5.569185109999999</v>
+        <v>4.572522480000001</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>3.081241117093891</v>
+        <v>1.819933353299884</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>26.56623356300079</v>
+        <v>20.42299683122516</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>45.27338306098363</v>
+        <v>38.05411205303697</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>28.16038337601558</v>
+        <v>41.52289111573787</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>71.83961662398443</v>
+        <v>58.47710888426213</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>28.16038337601558</v>
+        <v>41.52289111573787</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>2.05457884736952</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>0.002561595534159337</v>
+        <v>1.300395297971224</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>1.197503547728892</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>97.37272281286411</v>
+        <v>35.7449325943826</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>2.624715591601735</v>
+        <v>55.31047162103862</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>97.37528440839827</v>
+        <v>8.944595784578796</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>2.624715591601735</v>
+        <v>91.05540421542122</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>0.3439386563112486</v>
-      </c>
-      <c r="Q13" s="9" t="n">
-        <v>0</v>
+        <v>8.944595784578796</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>11.76734275074374</v>
       </c>
       <c r="R13" s="7" t="n">
-        <v>88.24080209403148</v>
+        <v>18.96193883173955</v>
       </c>
       <c r="S13" s="7" t="n">
-        <v>11.75919790596852</v>
+        <v>69.27071841751673</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>88.24080209403148</v>
+        <v>30.72928158248329</v>
       </c>
       <c r="U13" s="7" t="n">
-        <v>11.75919790596852</v>
+        <v>69.27071841751673</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>61</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Area 57</t>
+        </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>18.88724254</v>
+        <v>5.550435869999999</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>7.85347597368107</v>
+        <v>1.895559460174351</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>33.46688314673074</v>
+        <v>23.79309455971378</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>33.2386983601521</v>
+        <v>46.9782677303671</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>33.29441849311716</v>
+        <v>29.22863770991911</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>66.70558150688285</v>
+        <v>70.77136229008089</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>33.29441849311716</v>
+        <v>29.22863770991911</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>6.52632063631793</v>
+        <v>1.813398946040018</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>28.81207831490012</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>50.9516450695526</v>
+        <v>0.1533889395602908</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>0.002902284691128223</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>20.23627661554728</v>
+        <v>99.18528168522454</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>79.76372338445272</v>
+        <v>0.8118160300843398</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>20.23627661554728</v>
-      </c>
-      <c r="P14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="n"/>
-      <c r="R14" s="7" t="n"/>
-      <c r="S14" s="7" t="n"/>
-      <c r="T14" s="7" t="n"/>
-      <c r="U14" s="7" t="n"/>
+        <v>99.18818396991567</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>0.8118160300843398</v>
+      </c>
+      <c r="Q14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>99.19222385982013</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>0.8077761401798649</v>
+      </c>
+      <c r="T14" s="7" t="n">
+        <v>99.19222385982013</v>
+      </c>
+      <c r="U14" s="7" t="n">
+        <v>0.8077761401798649</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>67</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Area 61</t>
+        </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>2.53299854</v>
+        <v>18.88724254</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>2.339958232464654</v>
+        <v>5.269689050909752</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>28.31040870415242</v>
+        <v>32.89209533727735</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>70.62044075651856</v>
+        <v>33.15859942845047</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>1.069150539329002</v>
+        <v>33.94930523427217</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>98.93084946067098</v>
+        <v>66.05069476572781</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>1.069150539329002</v>
+        <v>33.94930523427217</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.148648937046215</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>28.64991829931408</v>
+        <v>9.110107559089247</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>68.39849651805126</v>
+        <v>20.64046555566017</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>2.951585182634657</v>
+        <v>36.50086132517749</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>97.04841481736534</v>
+        <v>42.85867311916234</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>2.951585182634657</v>
-      </c>
-      <c r="P15" s="11" t="n">
-        <v>0.001592820489130435</v>
-      </c>
-      <c r="Q15" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="R15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="U15" s="9" t="n">
-        <v>0</v>
-      </c>
+        <v>57.14132688083767</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>42.85867311916234</v>
+      </c>
+      <c r="Q15" s="7" t="n"/>
+      <c r="R15" s="7" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="7" t="n"/>
+      <c r="U15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>71</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Area 67 - Other Stocks</t>
+        </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>11.0806615</v>
+        <v>2.53300354</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>0.6531873388405796</v>
+        <v>2.44248946</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>56.71630444762222</v>
+        <v>28.01784339225146</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>24.43421765802317</v>
+        <v>70.92687970838661</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>18.84947789435462</v>
+        <v>1.055276899361936</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>81.15052210564539</v>
+        <v>98.94472310063807</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>18.84947789435462</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>2.560106884223044</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>12.28773731872246</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>19.14085461948806</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>68.57140806178947</v>
-      </c>
-      <c r="N16" s="7" t="n">
-        <v>31.42859193821052</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>68.57140806178947</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>5.874737451936376</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>23.8120339666278</v>
-      </c>
-      <c r="R16" s="7" t="n">
-        <v>30.0520602010787</v>
-      </c>
-      <c r="S16" s="7" t="n">
-        <v>46.13590583229351</v>
-      </c>
-      <c r="T16" s="7" t="n">
-        <v>53.8640941677065</v>
-      </c>
-      <c r="U16" s="7" t="n">
-        <v>46.13590583229351</v>
-      </c>
+        <v>1.055276899361936</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="n"/>
+      <c r="M16" s="7" t="n"/>
+      <c r="N16" s="7" t="n"/>
+      <c r="O16" s="7" t="n"/>
+      <c r="P16" s="7" t="n"/>
+      <c r="Q16" s="7" t="n"/>
+      <c r="R16" s="7" t="n"/>
+      <c r="S16" s="7" t="n"/>
+      <c r="T16" s="7" t="n"/>
+      <c r="U16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>77</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Area 67 - Salmon</t>
+        </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>1.5449858</v>
+        <v>0.375003</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>1.126265005036603</v>
+        <v>0.375009</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>44.36785573599059</v>
+        <v>19.7353802540078</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>37.29635383920956</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>18.33579042479986</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>81.66420957520015</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>18.33579042479986</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>0.1938647908254663</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>38.00801430239038</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>42.53697089535241</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>19.45501480225721</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>80.54498519774279</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>19.45501480225721</v>
-      </c>
-      <c r="P17" s="11" t="n">
-        <v>0.00472</v>
-      </c>
-      <c r="Q17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="S17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="U17" s="9" t="n">
-        <v>0</v>
-      </c>
+        <v>9.38565782113537</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="n"/>
+      <c r="M17" s="7" t="n"/>
+      <c r="N17" s="7" t="n"/>
+      <c r="O17" s="7" t="n"/>
+      <c r="P17" s="7" t="n"/>
+      <c r="Q17" s="7" t="n"/>
+      <c r="R17" s="7" t="n"/>
+      <c r="S17" s="7" t="n"/>
+      <c r="T17" s="7" t="n"/>
+      <c r="U17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="n">
-        <v>81</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Area 71</t>
+        </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>0.36511338</v>
+        <v>11.08002493</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>0.1812551740115241</v>
+        <v>0.6529318788405796</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>5.314728704171736</v>
+        <v>56.73849473669176</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>89.58992772063625</v>
+        <v>24.44377756074074</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>5.095343575192008</v>
+        <v>18.81772770256751</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>94.904656424808</v>
+        <v>81.18227229743249</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>5.095343575192008</v>
-      </c>
-      <c r="J18" s="10" t="n">
-        <v>0.03106024370562068</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0</v>
+        <v>18.81772770256751</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <v>1.76025295525963</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>3.191850975899791</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>99.51377058158526</v>
+        <v>17.8712501559447</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>0.4862294184147463</v>
+        <v>12.95991363318717</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>99.51377058158526</v>
+        <v>69.16883621086815</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>0.4862294184147463</v>
+        <v>30.83116378913187</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>0.1154699122828552</v>
+        <v>69.16883621086815</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>0.5319296524885614</v>
+        <v>18.10252085212152</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>96.75084443521978</v>
+        <v>30.69637087862274</v>
       </c>
       <c r="S18" s="7" t="n">
-        <v>2.717225912291666</v>
+        <v>51.20110826925575</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>97.28277408770833</v>
+        <v>48.79889173074426</v>
       </c>
       <c r="U18" s="7" t="n">
-        <v>2.717225912291666</v>
+        <v>51.20110826925575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B19" s="9" t="n">
-        <v>87</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Area 77</t>
+        </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>9.569458259999999</v>
+        <v>1.54069627</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>8.557087848215346</v>
+        <v>1.107774565864189</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>18.17055432603896</v>
+        <v>45.10842260128666</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>67.93886123495105</v>
+        <v>36.47824962747739</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>13.89058443901001</v>
+        <v>18.41332777123596</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>86.10941556099002</v>
+        <v>81.58667222876404</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>13.89058443901001</v>
+        <v>18.41332777123596</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.6154696528755617</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>10.35842121427861</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>0</v>
+        <v>0.1816104841358111</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>39.40057082317563</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>89.64157878572139</v>
+        <v>45.40718562706788</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>10.35842121427861</v>
+        <v>15.19224354975647</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>89.64157878572139</v>
-      </c>
-      <c r="P19" s="10" t="n">
-        <v>0.0720920629090909</v>
-      </c>
-      <c r="Q19" s="7" t="n">
-        <v>2.077935637041902</v>
-      </c>
-      <c r="R19" s="7" t="n">
-        <v>39.01801511141514</v>
-      </c>
-      <c r="S19" s="7" t="n">
-        <v>58.90404925154294</v>
-      </c>
-      <c r="T19" s="7" t="n">
-        <v>41.09595074845704</v>
-      </c>
-      <c r="U19" s="7" t="n">
-        <v>58.90404925154294</v>
+        <v>84.80775645024352</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>15.19224354975647</v>
+      </c>
+      <c r="Q19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="S19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="U19" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1594,56 +1574,66 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>48,58,88</t>
+          <t>Area 81</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>0.38665748</v>
+        <v>0.3627844</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.38194148</v>
+        <v>0.1785122685229879</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>99.19691187595893</v>
+        <v>4.010396198175475</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>0.8030881240410616</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="n">
+        <v>90.83824537845634</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>5.151358423368187</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>94.84864157663181</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>5.151358423368187</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>0.03037027112008275</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>0.1144749303569293</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="I20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="n">
-        <v>0.00307827</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>9.500466170933674</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>90.49953382906634</v>
-      </c>
-      <c r="M20" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="O20" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" s="7" t="n"/>
-      <c r="R20" s="7" t="n"/>
-      <c r="S20" s="7" t="n"/>
-      <c r="T20" s="7" t="n"/>
-      <c r="U20" s="7" t="n"/>
+      <c r="Q20" s="7" t="n">
+        <v>0.4731760360229404</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>96.85194454126089</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>2.674879422716179</v>
+      </c>
+      <c r="T20" s="7" t="n">
+        <v>97.32512057728383</v>
+      </c>
+      <c r="U20" s="7" t="n">
+        <v>2.674879422716179</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
@@ -1651,65 +1641,65 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Area 87</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>0.375009</v>
+        <v>9.569245629999999</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>0.2866187200854701</v>
+        <v>8.520954620215347</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>1.480622120451408</v>
+        <v>18.24760681741023</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>92.07774696305981</v>
+        <v>68.22695693226161</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>6.441630916488783</v>
+        <v>13.52543625032815</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>93.55836908351122</v>
+        <v>86.47456374967184</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>6.441630916488783</v>
-      </c>
-      <c r="J21" s="10" t="n">
-        <v>0.0882919688034188</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>79.01705320576171</v>
+        <v>13.52543625032815</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0.6982017688755617</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>0.0444607709090909</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>2.029760360883459</v>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v>18.95318643335483</v>
+        <v>9.131019417722438</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>81.04681356664517</v>
+        <v>90.86898058227756</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>18.95318643335483</v>
+        <v>9.131019417722438</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>9.83111111111111e-05</v>
-      </c>
-      <c r="Q21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="S21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="U21" s="9" t="n">
-        <v>0</v>
+        <v>90.86898058227756</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>3.36932229477012</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>1.11918887105544</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>95.51148883417446</v>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>4.48851116582556</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>95.51148883417446</v>
       </c>
     </row>
     <row r="22">
@@ -1721,35 +1711,45 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="C22" s="10" t="n">
-        <v>0.08399280000000002</v>
-      </c>
-      <c r="D22" s="10" t="n">
-        <v>0.048410275</v>
+      <c r="C22" s="7" t="n">
+        <v>0.13368501</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0.12305388</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>44.50384758194412</v>
+        <v>43.01178881966175</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>43.06757191525973</v>
+        <v>38.22304505961129</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>12.42858050279615</v>
+        <v>18.76516612072695</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>87.57141949720386</v>
+        <v>81.23483387927304</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>12.42858050279615</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n"/>
-      <c r="L22" s="7" t="n"/>
-      <c r="M22" s="7" t="n"/>
-      <c r="N22" s="7" t="n"/>
-      <c r="O22" s="7" t="n"/>
+        <v>18.76516612072695</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>0.00037699</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>100</v>
+      </c>
       <c r="P22" s="9" t="n">
         <v>0</v>
       </c>
@@ -1792,14 +1792,14 @@
       <c r="J23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="7" t="n"/>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" s="7" t="n"/>
       <c r="M23" s="7" t="n"/>
       <c r="N23" s="7" t="n"/>
       <c r="O23" s="7" t="n"/>
-      <c r="P23" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="P23" s="7" t="n"/>
       <c r="Q23" s="7" t="n"/>
       <c r="R23" s="7" t="n"/>
       <c r="S23" s="7" t="n"/>
@@ -1816,71 +1816,71 @@
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>80.28050343000002</v>
+        <v>80.28050343</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>46.97222035921851</v>
+        <v>43.43721693757583</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>29.35197536547227</v>
+        <v>28.94550908916258</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>50.81389647592701</v>
+        <v>52.3604095431505</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>19.83412815860072</v>
+        <v>18.69408136768692</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>80.16587184139928</v>
+        <v>81.30591863231308</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>19.83412815860072</v>
+        <v>18.69408136768692</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.04977095635138</v>
+        <v>15.57252109941144</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>20.64632289688818</v>
+        <v>4.953125924454993</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>48.90851800291125</v>
+        <v>18.50646994537689</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>30.44515910020057</v>
+        <v>40.38455458781009</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>69.55484089979943</v>
+        <v>41.10897546681303</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>30.44515910020057</v>
+        <v>58.89102453318698</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>7.445962044182146</v>
+        <v>41.10897546681303</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>21.38909624576318</v>
+        <v>14.55160924619851</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>34.13633332557907</v>
+        <v>29.89851343652522</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>44.47457042865774</v>
+        <v>55.54987731727626</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>55.52542957134225</v>
+        <v>44.45012268272373</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>44.47457042865774</v>
+        <v>55.54987731727626</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L2:P2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:U1"/>
     <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:O2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:I1"/>
   </mergeCells>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -116,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -135,7 +134,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,22 +724,22 @@
         <v>1.61571179</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.4523022766666</v>
+        <v>1.452884758461538</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>0</v>
@@ -770,25 +768,25 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>8.03279962</v>
+        <v>8.03279034</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>7.32892053</v>
+        <v>7.329011862192983</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="J6" s="9" t="n">
         <v>0</v>
@@ -817,46 +815,46 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1.11276046</v>
+        <v>1.11275983</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.5309964951115336</v>
+        <v>0.5383647806069558</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>94.57277070770527</v>
+        <v>93.24033789667247</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>3.145489068522551</v>
+        <v>3.342683989367675</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>2.281740223772186</v>
+        <v>3.416978113959853</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>97.71825977622782</v>
+        <v>96.58302188604014</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>2.281740223772186</v>
+        <v>3.416978113959853</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.2131862348884664</v>
+        <v>0.2491521770269727</v>
       </c>
       <c r="K7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>12.1097300123211</v>
+        <v>11.60948747745384</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>16.18487001907159</v>
+        <v>26.31408062829494</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>71.70539996860731</v>
+        <v>62.07643189425123</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>28.29460003139269</v>
+        <v>37.92356810574878</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>71.70539996860731</v>
+        <v>62.07643189425123</v>
       </c>
       <c r="Q7" s="7" t="n"/>
       <c r="R7" s="7" t="n"/>
@@ -877,43 +875,43 @@
         <v>4.83828389</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>3.031695113970642</v>
+        <v>3.016962372957966</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>38.7502319065041</v>
+        <v>38.44882190757007</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>30.32944954583235</v>
+        <v>30.72331592316782</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>30.92031854766354</v>
+        <v>30.82786216926212</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>69.07968145233646</v>
+        <v>69.17213783073788</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>30.92031854766354</v>
+        <v>30.82786216926212</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.3022463660313578</v>
+        <v>0.3539405711181204</v>
       </c>
       <c r="K8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>8.876416989167813</v>
+        <v>11.77044817088761</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>15.00717116820325</v>
+        <v>23.29147757170184</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>76.11641184262893</v>
+        <v>64.93807425741055</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>23.88358815737107</v>
+        <v>35.06192574258945</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>76.11641184262893</v>
+        <v>64.93807425741055</v>
       </c>
       <c r="Q8" s="7" t="n"/>
       <c r="R8" s="7" t="n"/>
@@ -934,22 +932,22 @@
         <v>1.10877228</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.8050351500000001</v>
+        <v>0.8144592167054264</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="J9" s="9" t="n">
         <v>0</v>
@@ -981,43 +979,43 @@
         <v>1.97234068</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>1.4958767</v>
+        <v>1.5472345226875</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.061431734313396</v>
+        <v>1.449358935809452</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>71.37075630409022</v>
+        <v>70.33952175572855</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>27.56781196159638</v>
+        <v>28.21111930846201</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>72.43218803840362</v>
+        <v>71.78888069153801</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>27.56781196159638</v>
+        <v>28.21111930846201</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.12120502</v>
+        <v>0.1297582718125</v>
       </c>
       <c r="K10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>13.46264135170074</v>
+        <v>12.57522693153289</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>16.23156603343893</v>
+        <v>15.28933190926768</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>70.30579261486034</v>
+        <v>72.13544115919943</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>29.69420738513966</v>
+        <v>27.86455884080057</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>70.30579261486034</v>
+        <v>72.13544115919943</v>
       </c>
       <c r="Q10" s="7" t="n"/>
       <c r="R10" s="7" t="n"/>
@@ -1038,58 +1036,58 @@
         <v>1.40545456</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>1.026634449090909</v>
+        <v>1.027163356420814</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>5.876524994210252</v>
+        <v>5.87349905181815</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>47.61143278184102</v>
+        <v>47.58447354929783</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>46.51204222394873</v>
+        <v>46.54202739888402</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>53.48795777605127</v>
+        <v>53.45797260111598</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>46.51204222394873</v>
+        <v>46.54202739888402</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>0.03939764090909091</v>
+        <v>0.04105422366515631</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.24672676</v>
+        <v>0.2468905515532701</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>44.01258450984778</v>
+        <v>43.00916655258264</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>9.104428380056442</v>
+        <v>9.101050804770628</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>46.88298711009576</v>
+        <v>47.88978264264671</v>
       </c>
       <c r="O11" s="7" t="n">
-        <v>53.11701288990422</v>
+        <v>52.11021735735327</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>46.88298711009576</v>
+        <v>47.88978264264671</v>
       </c>
       <c r="Q11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>2.358892890256412</v>
+        <v>2.357327959042714</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>97.6411071097436</v>
+        <v>97.64267204095729</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>2.358892890256412</v>
+        <v>2.357327959042714</v>
       </c>
       <c r="U11" s="7" t="n">
-        <v>97.6411071097436</v>
+        <v>97.64267204095729</v>
       </c>
     </row>
     <row r="12">
@@ -1162,58 +1160,58 @@
         <v>4.572522480000001</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>1.819933353299884</v>
+        <v>1.682966068923468</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>20.42299683122516</v>
+        <v>20.42867857611751</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>38.05411205303697</v>
+        <v>35.87335164494635</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>41.52289111573787</v>
+        <v>43.69796977893616</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>58.47710888426213</v>
+        <v>56.30203022106385</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>41.52289111573787</v>
+        <v>43.69796977893616</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>1.300395297971224</v>
+        <v>1.223473080002168</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>1.197503547728892</v>
+        <v>0.5645167019265942</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>35.7449325943826</v>
+        <v>36.89100058954224</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>55.31047162103862</v>
+        <v>55.31193706006476</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>8.944595784578796</v>
+        <v>7.797062350393008</v>
       </c>
       <c r="O13" s="7" t="n">
-        <v>91.05540421542122</v>
+        <v>92.20293764960701</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>8.944595784578796</v>
+        <v>7.797062350393008</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>11.76734275074374</v>
+        <v>17.1607154891876</v>
       </c>
       <c r="R13" s="7" t="n">
-        <v>18.96193883173955</v>
+        <v>49.54557522990425</v>
       </c>
       <c r="S13" s="7" t="n">
-        <v>69.27071841751673</v>
+        <v>33.29370928090814</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>30.72928158248329</v>
+        <v>66.70629071909185</v>
       </c>
       <c r="U13" s="7" t="n">
-        <v>69.27071841751673</v>
+        <v>33.29370928090814</v>
       </c>
     </row>
     <row r="14">
@@ -1226,61 +1224,61 @@
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>5.550435869999999</v>
+        <v>5.5459051</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>1.895559460174351</v>
+        <v>1.833945421560932</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>23.79309455971378</v>
+        <v>18.40936196087928</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>46.9782677303671</v>
+        <v>49.99438417067069</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>29.22863770991911</v>
+        <v>31.59625386845002</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>70.77136229008089</v>
+        <v>68.40374613154998</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>29.22863770991911</v>
+        <v>31.59625386845002</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>1.813398946040018</v>
+        <v>1.658024864744971</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>0.1533889395602908</v>
+        <v>0.1473685552227363</v>
       </c>
       <c r="L14" s="11" t="n">
-        <v>0.002902284691128223</v>
+        <v>0.003174258789423841</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>99.18528168522454</v>
+        <v>97.63784088911419</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>0.8118160300843398</v>
+        <v>2.358984852096386</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>99.18818396991567</v>
+        <v>97.64101514790362</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>0.8118160300843398</v>
+        <v>2.358984852096386</v>
       </c>
       <c r="Q14" s="9" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="7" t="n">
-        <v>99.19222385982013</v>
+        <v>98.11724233058483</v>
       </c>
       <c r="S14" s="7" t="n">
-        <v>0.8077761401798649</v>
+        <v>1.882757669415181</v>
       </c>
       <c r="T14" s="7" t="n">
-        <v>99.19222385982013</v>
+        <v>98.11724233058483</v>
       </c>
       <c r="U14" s="7" t="n">
-        <v>0.8077761401798649</v>
+        <v>1.882757669415181</v>
       </c>
     </row>
     <row r="15">
@@ -1296,43 +1294,43 @@
         <v>18.88724254</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>5.269689050909752</v>
+        <v>5.660902182910752</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>32.89209533727735</v>
+        <v>31.20478221102417</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>33.15859942845047</v>
+        <v>33.19605183855342</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>33.94930523427217</v>
+        <v>35.59916595042241</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>66.05069476572781</v>
+        <v>64.40083404957758</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>33.94930523427217</v>
+        <v>35.59916595042241</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>9.110107559089247</v>
+        <v>6.382576549089248</v>
       </c>
       <c r="K15" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>20.64046555566017</v>
+        <v>29.79633347427351</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>36.50086132517749</v>
+        <v>52.099143678773</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>42.85867311916234</v>
+        <v>18.1045228469535</v>
       </c>
       <c r="O15" s="7" t="n">
-        <v>57.14132688083767</v>
+        <v>81.8954771530465</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>42.85867311916234</v>
+        <v>18.1045228469535</v>
       </c>
       <c r="Q15" s="7" t="n"/>
       <c r="R15" s="7" t="n"/>
@@ -1346,29 +1344,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>2.53300354</v>
+        <v>2.53299754</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.44248946</v>
+        <v>2.438330217339743</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>28.01784339225146</v>
+        <v>27.92220335605353</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>70.92687970838661</v>
+        <v>71.07840539460011</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>98.94472310063807</v>
+        <v>99.00060875065364</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>0</v>
@@ -1393,11 +1391,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>0.375003</v>
+        <v>0.375009</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>0.375009</v>
@@ -1444,61 +1442,61 @@
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>11.08002493</v>
+        <v>11.07836851</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>0.6529318788405796</v>
+        <v>0.3720987892706445</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>56.73849473669176</v>
+        <v>56.03771030200976</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>24.44377756074074</v>
+        <v>35.29575997977181</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>18.81772770256751</v>
+        <v>8.666529718218442</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>81.18227229743249</v>
+        <v>91.33347028178156</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>18.81772770256751</v>
+        <v>8.666529718218442</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>1.76025295525963</v>
+        <v>1.74133953374802</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>3.191850975899791</v>
+        <v>2.429643950262828</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>17.8712501559447</v>
+        <v>17.64491691924795</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>12.95991363318717</v>
+        <v>13.45642667212642</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>69.16883621086815</v>
+        <v>68.89865640862564</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>30.83116378913187</v>
+        <v>31.10134359137437</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>69.16883621086815</v>
+        <v>68.89865640862564</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>18.10252085212152</v>
+        <v>20.19838769126792</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>30.69637087862274</v>
+        <v>27.57982352770417</v>
       </c>
       <c r="S18" s="7" t="n">
-        <v>51.20110826925575</v>
+        <v>52.22178878102791</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>48.79889173074426</v>
+        <v>47.77821121897209</v>
       </c>
       <c r="U18" s="7" t="n">
-        <v>51.20110826925575</v>
+        <v>52.22178878102791</v>
       </c>
     </row>
     <row r="19">
@@ -1511,46 +1509,46 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>1.54069627</v>
+        <v>1.54069426</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>1.107774565864189</v>
+        <v>1.110322579394317</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>45.10842260128666</v>
+        <v>45.05288988020168</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>36.47824962747739</v>
+        <v>36.536801716666</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>18.41332777123596</v>
+        <v>18.41030840313232</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>81.58667222876404</v>
+        <v>81.58969159686768</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>18.41332777123596</v>
+        <v>18.41030840313232</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>0.1816104841358111</v>
+        <v>0.1892906257445721</v>
       </c>
       <c r="K19" s="11" t="n">
         <v>0.00472</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>39.40057082317563</v>
+        <v>34.64923318048201</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>45.40718562706788</v>
+        <v>43.56486715884244</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>15.19224354975647</v>
+        <v>21.78589966067555</v>
       </c>
       <c r="O19" s="7" t="n">
-        <v>84.80775645024352</v>
+        <v>78.21410033932446</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>15.19224354975647</v>
+        <v>21.78589966067555</v>
       </c>
       <c r="Q19" s="9" t="n">
         <v>0</v>
@@ -1581,58 +1579,58 @@
         <v>0.3627844</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.1785122685229879</v>
+        <v>0.1796363309198175</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>4.010396198175475</v>
+        <v>4.166978123587921</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>90.83824537845634</v>
+        <v>90.46716367316027</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>5.151358423368187</v>
+        <v>5.365858203251798</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>94.84864157663181</v>
+        <v>94.6341417967482</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>5.151358423368187</v>
-      </c>
-      <c r="J20" s="10" t="n">
-        <v>0.03037027112008275</v>
+        <v>5.365858203251798</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>0.001650904091343724</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>0.1144749303569293</v>
+        <v>0.1174316806848976</v>
       </c>
       <c r="L20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M20" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="P20" s="9" t="n">
-        <v>0</v>
+      <c r="M20" s="7" t="n">
+        <v>91.62838786300081</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>8.371612136999202</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>91.62838786300081</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>8.371612136999202</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>0.4731760360229404</v>
+        <v>0.5386944426013784</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>96.85194454126089</v>
+        <v>96.84357539602794</v>
       </c>
       <c r="S20" s="7" t="n">
-        <v>2.674879422716179</v>
+        <v>2.617730161370666</v>
       </c>
       <c r="T20" s="7" t="n">
-        <v>97.32512057728383</v>
+        <v>97.38226983862933</v>
       </c>
       <c r="U20" s="7" t="n">
-        <v>2.674879422716179</v>
+        <v>2.617730161370666</v>
       </c>
     </row>
     <row r="21">
@@ -1648,58 +1646,58 @@
         <v>9.569245629999999</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>8.520954620215347</v>
+        <v>8.527937236172136</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>18.24760681741023</v>
+        <v>18.23266580330473</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>68.22695693226161</v>
+        <v>68.17109317236695</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>13.52543625032815</v>
+        <v>13.59624102432833</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>86.47456374967184</v>
+        <v>86.40375897567168</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>13.52543625032815</v>
+        <v>13.59624102432833</v>
       </c>
       <c r="J21" s="7" t="n">
-        <v>0.6982017688755617</v>
+        <v>0.5974030388755618</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>0.0444607709090909</v>
+        <v>0.0445416509090909</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>9.131019417722438</v>
+        <v>10.67167974419841</v>
       </c>
       <c r="M21" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>90.86898058227756</v>
+        <v>89.32832025580159</v>
       </c>
       <c r="O21" s="7" t="n">
-        <v>9.131019417722438</v>
+        <v>10.67167974419841</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>90.86898058227756</v>
+        <v>89.32832025580159</v>
       </c>
       <c r="Q21" s="7" t="n">
-        <v>3.36932229477012</v>
+        <v>3.363204183257881</v>
       </c>
       <c r="R21" s="7" t="n">
-        <v>1.11918887105544</v>
+        <v>1.298739467876196</v>
       </c>
       <c r="S21" s="7" t="n">
-        <v>95.51148883417446</v>
+        <v>95.33805634886592</v>
       </c>
       <c r="T21" s="7" t="n">
-        <v>4.48851116582556</v>
+        <v>4.661943651134076</v>
       </c>
       <c r="U21" s="7" t="n">
-        <v>95.51148883417446</v>
+        <v>95.33805634886592</v>
       </c>
     </row>
     <row r="22">
@@ -1712,37 +1710,37 @@
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.13368501</v>
+        <v>0.13988412</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>0.12305388</v>
+        <v>0.11682196</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>43.01178881966175</v>
+        <v>40.96857303198816</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>38.22304505961129</v>
+        <v>40.26207059015275</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>18.76516612072695</v>
+        <v>18.76935637785909</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>81.23483387927304</v>
+        <v>81.2306436221409</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>18.76516612072695</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>0.00037699</v>
+        <v>18.76935637785909</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>0.004907760000000001</v>
       </c>
       <c r="K22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M22" s="9" t="n">
-        <v>0</v>
+      <c r="L22" s="7" t="n">
+        <v>7.681508468221756</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>92.31849153177825</v>
       </c>
       <c r="N22" s="9" t="n">
         <v>0</v>
@@ -1819,58 +1817,58 @@
         <v>80.28050343</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>43.43721693757583</v>
+        <v>43.40389934143405</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>28.94550908916258</v>
+        <v>28.30670998499615</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>52.3604095431505</v>
+        <v>52.62970995034149</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>18.69408136768692</v>
+        <v>19.06358006466236</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>81.30591863231308</v>
+        <v>80.93641993533763</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>18.69408136768692</v>
+        <v>19.06358006466236</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>15.57252109941144</v>
+        <v>12.57434316500959</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>4.953125924454993</v>
+        <v>3.555113090559418</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>18.50646994537689</v>
+        <v>23.02167136508862</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>40.38455458781009</v>
+        <v>48.64604546990453</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>41.10897546681303</v>
+        <v>28.33228316500686</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>58.89102453318698</v>
+        <v>71.66771683499314</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>41.10897546681303</v>
+        <v>28.33228316500686</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>14.55160924619851</v>
+        <v>16.58891346856308</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>29.89851343652522</v>
+        <v>34.29488825489002</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>55.54987731727626</v>
+        <v>49.1161982765469</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>44.45012268272373</v>
+        <v>50.8838017234531</v>
       </c>
       <c r="U24" s="7" t="n">
-        <v>55.54987731727626</v>
+        <v>49.1161982765469</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_tier_and_area.xlsx
@@ -818,43 +818,43 @@
         <v>1.11275983</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.5383647806069558</v>
+        <v>0.5383444629084126</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>93.24033789667247</v>
+        <v>93.24385688722218</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>3.342683989367675</v>
+        <v>3.339036038392027</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>3.416978113959853</v>
+        <v>3.417107074385811</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>96.58302188604014</v>
+        <v>96.5828929256142</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>3.416978113959853</v>
+        <v>3.417107074385811</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.2491521770269727</v>
+        <v>0.2500456493284295</v>
       </c>
       <c r="K7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>11.60948747745384</v>
+        <v>11.55987843453366</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>26.31408062829494</v>
+        <v>26.22005418855153</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>62.07643189425123</v>
+        <v>62.22006737691481</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>37.92356810574878</v>
+        <v>37.77993262308519</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>62.07643189425123</v>
+        <v>62.22006737691481</v>
       </c>
       <c r="Q7" s="7" t="n"/>
       <c r="R7" s="7" t="n"/>
@@ -979,43 +979,43 @@
         <v>1.97234068</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>1.5472345226875</v>
+        <v>1.547211601495902</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.449358935809452</v>
+        <v>1.449168771412988</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>70.33952175572855</v>
+        <v>70.3400347118547</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>28.21111930846201</v>
+        <v>28.21079651673232</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>71.78888069153801</v>
+        <v>71.78920348326768</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>28.21111930846201</v>
+        <v>28.21079651673232</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.1297582718125</v>
+        <v>0.1303053373565574</v>
       </c>
       <c r="K10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>12.57522693153289</v>
+        <v>12.52243190791755</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>15.28933190926768</v>
+        <v>15.64748863766845</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>72.13544115919943</v>
+        <v>71.830079454414</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>27.86455884080057</v>
+        <v>28.169920545586</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>72.13544115919943</v>
+        <v>71.830079454414</v>
       </c>
       <c r="Q10" s="7" t="n"/>
       <c r="R10" s="7" t="n"/>
@@ -1817,43 +1817,43 @@
         <v>80.28050343</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>43.40389934143405</v>
+        <v>43.40385610254391</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>28.30670998499615</v>
+        <v>28.30673063996116</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>52.62970995034149</v>
+        <v>52.62969670880847</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>19.06358006466236</v>
+        <v>19.06357265123036</v>
       </c>
       <c r="H24" s="7" t="n">
-        <v>80.93641993533763</v>
+        <v>80.93642734876963</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>19.06358006466236</v>
+        <v>19.06357265123036</v>
       </c>
       <c r="J24" s="7" t="n">
-        <v>12.57434316500959</v>
+        <v>12.5757837028551</v>
       </c>
       <c r="K24" s="7" t="n">
         <v>3.555113090559418</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>23.02167136508862</v>
+        <v>23.0188727038239</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>48.64604546990453</v>
+        <v>48.6448493242098</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>28.33228316500686</v>
+        <v>28.33627797196631</v>
       </c>
       <c r="O24" s="7" t="n">
-        <v>71.66771683499314</v>
+        <v>71.6637220280337</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>28.33228316500686</v>
+        <v>28.33627797196631</v>
       </c>
       <c r="Q24" s="7" t="n">
         <v>16.58891346856308</v>
